--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Poland-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Poland-cleaned.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Downloads\Unemployment rates\Data cleaned per country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1B4F0-8C17-471E-B5DC-0C6667C9AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9E5854-45E6-424E-BE19-9DCEE5756881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1620" windowWidth="13710" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2470" yWindow="3680" windowWidth="11540" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2399,7 +2408,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2477,7 +2486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Kolumna" xfId="2" xr:uid="{B0B23176-780C-4206-808A-F4605F237773}"/>
@@ -2762,17 +2771,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="D398" sqref="D398"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>788</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>788</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>788</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>788</v>
       </c>
@@ -2863,7 +2872,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>788</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>788</v>
       </c>
@@ -2897,7 +2906,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>788</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>788</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>788</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>788</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>788</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>788</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>788</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>788</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>788</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>788</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>788</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>788</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>788</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>788</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>788</v>
       </c>
@@ -3152,7 +3161,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>788</v>
       </c>
@@ -3169,7 +3178,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>788</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>788</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>788</v>
       </c>
@@ -3220,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>788</v>
       </c>
@@ -3237,7 +3246,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>788</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>788</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>788</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>788</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>788</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>788</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>788</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>788</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>788</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>788</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>788</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>788</v>
       </c>
@@ -3441,7 +3450,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>788</v>
       </c>
@@ -3458,7 +3467,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>788</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>788</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>788</v>
       </c>
@@ -3509,7 +3518,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>788</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>788</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>788</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>788</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>788</v>
       </c>
@@ -3594,7 +3603,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>788</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>788</v>
       </c>
@@ -3628,7 +3637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>788</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>788</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>788</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>788</v>
       </c>
@@ -3696,7 +3705,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>788</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>788</v>
       </c>
@@ -3730,7 +3739,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>788</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>788</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>788</v>
       </c>
@@ -3781,7 +3790,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>788</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>788</v>
       </c>
@@ -3815,7 +3824,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>788</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>788</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>788</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>788</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>788</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>788</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>788</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>788</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>788</v>
       </c>
@@ -3968,7 +3977,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>788</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>788</v>
       </c>
@@ -4002,7 +4011,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>788</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>788</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>788</v>
       </c>
@@ -4053,7 +4062,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>788</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>788</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>788</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>788</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>788</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>788</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>788</v>
       </c>
@@ -4172,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>788</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>788</v>
       </c>
@@ -4206,7 +4215,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>788</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>788</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>788</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>788</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>788</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>788</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>788</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>788</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>788</v>
       </c>
@@ -4359,7 +4368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>788</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>788</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>788</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>788</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>788</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>788</v>
       </c>
@@ -4461,7 +4470,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>788</v>
       </c>
@@ -4478,7 +4487,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>788</v>
       </c>
@@ -4495,7 +4504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>788</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>788</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>788</v>
       </c>
@@ -4546,7 +4555,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>788</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>788</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>788</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>788</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>788</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>788</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>788</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>788</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>788</v>
       </c>
@@ -4699,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>788</v>
       </c>
@@ -4716,7 +4725,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>788</v>
       </c>
@@ -4733,7 +4742,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>788</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>788</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>788</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>788</v>
       </c>
@@ -4801,7 +4810,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>788</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>788</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>788</v>
       </c>
@@ -4852,7 +4861,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>788</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>788</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>788</v>
       </c>
@@ -4903,7 +4912,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>788</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>788</v>
       </c>
@@ -4937,7 +4946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>788</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>788</v>
       </c>
@@ -4971,7 +4980,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>788</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>788</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>788</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>788</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>788</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>788</v>
       </c>
@@ -5073,7 +5082,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>788</v>
       </c>
@@ -5090,7 +5099,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>788</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>788</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>788</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>788</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>788</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>788</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>788</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>788</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>788</v>
       </c>
@@ -5243,7 +5252,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>788</v>
       </c>
@@ -5260,7 +5269,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>788</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>788</v>
       </c>
@@ -5294,7 +5303,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>788</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>788</v>
       </c>
@@ -5328,7 +5337,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>788</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>788</v>
       </c>
@@ -5362,7 +5371,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>788</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>788</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>788</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>788</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>788</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>788</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>788</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>788</v>
       </c>
@@ -5498,7 +5507,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>788</v>
       </c>
@@ -5515,7 +5524,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>788</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>788</v>
       </c>
@@ -5549,7 +5558,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>788</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>788</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>788</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>788</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>788</v>
       </c>
@@ -5634,7 +5643,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>788</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>788</v>
       </c>
@@ -5668,7 +5677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>788</v>
       </c>
@@ -5685,7 +5694,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>788</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>788</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>788</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>788</v>
       </c>
@@ -5753,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>788</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>788</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>788</v>
       </c>
@@ -5804,7 +5813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>788</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>788</v>
       </c>
@@ -5838,7 +5847,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>788</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>788</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>788</v>
       </c>
@@ -5889,7 +5898,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>788</v>
       </c>
@@ -5906,7 +5915,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>788</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>788</v>
       </c>
@@ -5940,7 +5949,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>788</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>788</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>788</v>
       </c>
@@ -5994,7 +6003,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>788</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>788</v>
       </c>
@@ -6028,7 +6037,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>788</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>788</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>788</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>788</v>
       </c>
@@ -6096,7 +6105,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>788</v>
       </c>
@@ -6113,7 +6122,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>788</v>
       </c>
@@ -6130,7 +6139,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>788</v>
       </c>
@@ -6147,7 +6156,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>788</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>788</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>788</v>
       </c>
@@ -6198,7 +6207,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>788</v>
       </c>
@@ -6218,7 +6227,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>788</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>788</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>788</v>
       </c>
@@ -6269,7 +6278,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>788</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>788</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>788</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>788</v>
       </c>
@@ -6337,7 +6346,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>788</v>
       </c>
@@ -6354,7 +6363,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>788</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>788</v>
       </c>
@@ -6388,7 +6397,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>788</v>
       </c>
@@ -6405,7 +6414,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>788</v>
       </c>
@@ -6422,7 +6431,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>788</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>788</v>
       </c>
@@ -6456,7 +6465,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>788</v>
       </c>
@@ -6473,7 +6482,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>788</v>
       </c>
@@ -6490,7 +6499,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>788</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>788</v>
       </c>
@@ -6524,7 +6533,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>788</v>
       </c>
@@ -6541,7 +6550,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>788</v>
       </c>
@@ -6558,7 +6567,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>788</v>
       </c>
@@ -6575,7 +6584,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>788</v>
       </c>
@@ -6592,7 +6601,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>788</v>
       </c>
@@ -6609,7 +6618,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>788</v>
       </c>
@@ -6626,7 +6635,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>788</v>
       </c>
@@ -6643,7 +6652,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>788</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>788</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>788</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>788</v>
       </c>
@@ -6711,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>788</v>
       </c>
@@ -6728,7 +6737,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>788</v>
       </c>
@@ -6745,7 +6754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>788</v>
       </c>
@@ -6762,7 +6771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>788</v>
       </c>
@@ -6779,7 +6788,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>788</v>
       </c>
@@ -6796,7 +6805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>788</v>
       </c>
@@ -6813,7 +6822,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>788</v>
       </c>
@@ -6830,7 +6839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>788</v>
       </c>
@@ -6847,7 +6856,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>788</v>
       </c>
@@ -6864,7 +6873,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>788</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>788</v>
       </c>
@@ -6898,7 +6907,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>788</v>
       </c>
@@ -6915,7 +6924,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>788</v>
       </c>
@@ -6932,7 +6941,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>788</v>
       </c>
@@ -6949,7 +6958,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>788</v>
       </c>
@@ -6966,7 +6975,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>788</v>
       </c>
@@ -6983,7 +6992,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>788</v>
       </c>
@@ -7000,7 +7009,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>788</v>
       </c>
@@ -7017,7 +7026,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>788</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>788</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>788</v>
       </c>
@@ -7068,7 +7077,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>788</v>
       </c>
@@ -7085,7 +7094,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>788</v>
       </c>
@@ -7102,7 +7111,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>788</v>
       </c>
@@ -7119,7 +7128,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>788</v>
       </c>
@@ -7136,7 +7145,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>788</v>
       </c>
@@ -7153,7 +7162,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>788</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>788</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>788</v>
       </c>
@@ -7204,7 +7213,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>788</v>
       </c>
@@ -7221,7 +7230,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>788</v>
       </c>
@@ -7238,7 +7247,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>788</v>
       </c>
@@ -7255,7 +7264,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>788</v>
       </c>
@@ -7272,7 +7281,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>788</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>788</v>
       </c>
@@ -7306,7 +7315,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>788</v>
       </c>
@@ -7323,7 +7332,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>788</v>
       </c>
@@ -7340,7 +7349,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>788</v>
       </c>
@@ -7357,7 +7366,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>788</v>
       </c>
@@ -7374,7 +7383,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>788</v>
       </c>
@@ -7391,7 +7400,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>788</v>
       </c>
@@ -7408,7 +7417,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>788</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>788</v>
       </c>
@@ -7442,7 +7451,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>788</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>788</v>
       </c>
@@ -7476,7 +7485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>788</v>
       </c>
@@ -7493,7 +7502,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>788</v>
       </c>
@@ -7510,7 +7519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>788</v>
       </c>
@@ -7527,7 +7536,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>788</v>
       </c>
@@ -7544,7 +7553,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>788</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>788</v>
       </c>
@@ -7578,7 +7587,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>788</v>
       </c>
@@ -7595,7 +7604,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>788</v>
       </c>
@@ -7612,7 +7621,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>788</v>
       </c>
@@ -7629,7 +7638,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>788</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>788</v>
       </c>
@@ -7663,7 +7672,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>788</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>788</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>788</v>
       </c>
@@ -7714,7 +7723,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>788</v>
       </c>
@@ -7731,7 +7740,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>788</v>
       </c>
@@ -7748,7 +7757,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>788</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>788</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>788</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>788</v>
       </c>
@@ -7816,7 +7825,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>788</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>788</v>
       </c>
@@ -7850,7 +7859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>788</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>788</v>
       </c>
@@ -7884,7 +7893,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>788</v>
       </c>
@@ -7901,7 +7910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>788</v>
       </c>
@@ -7918,7 +7927,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>788</v>
       </c>
@@ -7935,7 +7944,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>788</v>
       </c>
@@ -7952,7 +7961,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>788</v>
       </c>
@@ -7969,7 +7978,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>788</v>
       </c>
@@ -7986,7 +7995,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>788</v>
       </c>
@@ -8003,7 +8012,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>788</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>788</v>
       </c>
@@ -8037,7 +8046,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>788</v>
       </c>
@@ -8054,7 +8063,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>788</v>
       </c>
@@ -8071,7 +8080,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>788</v>
       </c>
@@ -8088,7 +8097,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>788</v>
       </c>
@@ -8105,7 +8114,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>788</v>
       </c>
@@ -8122,7 +8131,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>788</v>
       </c>
@@ -8139,7 +8148,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>788</v>
       </c>
@@ -8156,7 +8165,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>788</v>
       </c>
@@ -8173,7 +8182,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>788</v>
       </c>
@@ -8190,7 +8199,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>788</v>
       </c>
@@ -8207,7 +8216,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>788</v>
       </c>
@@ -8224,7 +8233,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>788</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>788</v>
       </c>
@@ -8258,7 +8267,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>788</v>
       </c>
@@ -8275,7 +8284,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>788</v>
       </c>
@@ -8292,7 +8301,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>788</v>
       </c>
@@ -8309,7 +8318,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>788</v>
       </c>
@@ -8326,7 +8335,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>788</v>
       </c>
@@ -8343,7 +8352,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>788</v>
       </c>
@@ -8360,7 +8369,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>788</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>788</v>
       </c>
@@ -8394,7 +8403,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>788</v>
       </c>
@@ -8411,7 +8420,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>788</v>
       </c>
@@ -8428,7 +8437,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>788</v>
       </c>
@@ -8445,7 +8454,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>788</v>
       </c>
@@ -8462,7 +8471,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>788</v>
       </c>
@@ -8479,7 +8488,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>788</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>788</v>
       </c>
@@ -8513,7 +8522,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>788</v>
       </c>
@@ -8530,7 +8539,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>788</v>
       </c>
@@ -8547,7 +8556,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>788</v>
       </c>
@@ -8564,7 +8573,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>788</v>
       </c>
@@ -8581,7 +8590,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>788</v>
       </c>
@@ -8598,7 +8607,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>788</v>
       </c>
@@ -8615,7 +8624,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>788</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>788</v>
       </c>
@@ -8649,7 +8658,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>788</v>
       </c>
@@ -8666,7 +8675,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>788</v>
       </c>
@@ -8683,7 +8692,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>788</v>
       </c>
@@ -8700,7 +8709,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>788</v>
       </c>
@@ -8717,7 +8726,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>788</v>
       </c>
@@ -8734,7 +8743,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>788</v>
       </c>
@@ -8751,7 +8760,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>788</v>
       </c>
@@ -8768,7 +8777,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>788</v>
       </c>
@@ -8785,7 +8794,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>788</v>
       </c>
@@ -8802,7 +8811,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>788</v>
       </c>
@@ -8819,7 +8828,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>788</v>
       </c>
@@ -8836,7 +8845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>788</v>
       </c>
@@ -8853,7 +8862,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>788</v>
       </c>
@@ -8870,7 +8879,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>788</v>
       </c>
@@ -8887,7 +8896,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>788</v>
       </c>
@@ -8904,7 +8913,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>788</v>
       </c>
@@ -8921,7 +8930,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>788</v>
       </c>
@@ -8938,7 +8947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>788</v>
       </c>
@@ -8955,7 +8964,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>788</v>
       </c>
@@ -8972,7 +8981,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>788</v>
       </c>
@@ -8989,7 +8998,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>788</v>
       </c>
@@ -9006,7 +9015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>788</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>788</v>
       </c>
@@ -9040,7 +9049,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>788</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>788</v>
       </c>
@@ -9074,7 +9083,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>788</v>
       </c>
@@ -9091,7 +9100,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>788</v>
       </c>
@@ -9108,7 +9117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>788</v>
       </c>
@@ -9125,7 +9134,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>788</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>788</v>
       </c>
@@ -9159,7 +9168,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>788</v>
       </c>
@@ -9176,7 +9185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>788</v>
       </c>
@@ -9193,7 +9202,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>788</v>
       </c>
@@ -9210,7 +9219,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>788</v>
       </c>
@@ -9227,7 +9236,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>788</v>
       </c>
@@ -9244,7 +9253,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>788</v>
       </c>
@@ -9261,7 +9270,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>788</v>
       </c>
@@ -9278,7 +9287,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>788</v>
       </c>
@@ -9295,7 +9304,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>788</v>
       </c>
@@ -9312,7 +9321,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>788</v>
       </c>
@@ -9329,7 +9338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>788</v>
       </c>
@@ -9346,7 +9355,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>788</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>788</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>788</v>
       </c>
@@ -9397,7 +9406,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>788</v>
       </c>
@@ -9414,7 +9423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>788</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>788</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>788</v>
       </c>
@@ -9465,7 +9474,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>788</v>
       </c>
@@ -9482,7 +9491,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>788</v>
       </c>
@@ -9499,7 +9508,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -9516,7 +9525,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>788</v>
       </c>
@@ -9533,7 +9542,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>788</v>
       </c>
